--- a/Data/MATLAB_vs_BEHAVE.xlsx
+++ b/Data/MATLAB_vs_BEHAVE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremybenik/Research_Files/40_Scott_Burgen_WRF_Implementation/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273C09C4-7219-F242-967E-A3CD8ED8BBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88C21EB-6D2F-754F-BA1C-8738125F5C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34560" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34560" yWindow="-5420" windowWidth="38400" windowHeight="21600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="10" r:id="rId1"/>
@@ -27,10 +27,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'FMC 0.03'!$D$1:$D$280</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'FMC 0.05'!$O$1:$O$81</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet4!$A$1:$A$1042</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">making_plots_005_FMC!$X$1</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">making_plots_005_FMC!$X$2:$X$21</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">making_plots_005_FMC!$Y$1</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">making_plots_005_FMC!$Y$2:$Y$21</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">making_plots_005_FMC!$W$1</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">making_plots_005_FMC!$W$2:$W$21</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">making_plots_005_FMC!$X$1</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">making_plots_005_FMC!$X$2:$X$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">making_plots_003_FMC!$A$1:$X$65</definedName>
     <definedName name="wfa_python_albini_rothermel" localSheetId="0">Sheet4!$A$1:$F$1041</definedName>
   </definedNames>
@@ -57,7 +57,7 @@
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=wfa_python_albini_rothermel;Extended Properties=&quot;&quot;" command="SELECT * FROM [wfa_python_albini_rothermel]"/>
   </connection>
   <connection id="2" xr16:uid="{8AB0CF50-1FA5-7240-9520-A3DEA4DD8D56}" name="wfa_python_albini_rothermel" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/jeremybenik/Downloads/wfa_python_albini_rothermel.txt" space="1" consecutive="1">
+    <textPr sourceFile="/Users/jeremybenik/Downloads/wfa_python_albini_rothermel.txt" space="1" consecutive="1">
       <textFields count="6">
         <textField/>
         <textField/>
@@ -457,14 +457,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1800"/>
               <a:t>WFA</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" sz="1800" baseline="0"/>
               <a:t> ROS (m/s) Fuel type 1 0.03 FMC 0 Slope</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="1800"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -543,6 +543,30 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>making_plots_003_FMC!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>making_plots_003_FMC!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -561,30 +585,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.4948157399999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>making_plots_003_FMC!$C$2:$C$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -648,9 +648,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>ROS (m/s)</a:t>
+                  <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Midflame Wind Speed (m/s)</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -765,9 +770,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Midflame Wind Speed (m/s)</a:t>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>ROS</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" baseline="0"/>
+                  <a:t> (m/s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1800"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -941,7 +951,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>making_plots_005_FMC!$O$1</c:f>
+              <c:f>making_plots_005_FMC!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -976,10 +986,34 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>making_plots_005_FMC!$N$2:$N$21</c:f>
+              <c:f>making_plots_005_FMC!$M$2:$M$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>making_plots_005_FMC!$N$2:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>3.2523712367316299E-2</c:v>
                 </c:pt>
@@ -994,30 +1028,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.6692500811254001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>making_plots_005_FMC!$O$2:$O$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1264,7 +1274,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>making_plots_005_FMC!$R$1</c:f>
+              <c:f>making_plots_005_FMC!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1299,10 +1309,34 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>making_plots_005_FMC!$Q$2:$Q$21</c:f>
+              <c:f>making_plots_005_FMC!$P$2:$P$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>making_plots_005_FMC!$Q$2:$Q$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>5.6375390507799002E-2</c:v>
                 </c:pt>
@@ -1317,30 +1351,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.6931017592658799</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>making_plots_005_FMC!$R$2:$R$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1587,11 +1597,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>making_plots_005_FMC!$Y$1</c:f>
+              <c:f>making_plots_005_FMC!$X$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>WS[m/s]</c:v>
+                  <c:v>ROS[m/s]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1622,6 +1632,30 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>making_plots_005_FMC!$W$2:$W$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>making_plots_005_FMC!$X$2:$X$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -1643,35 +1677,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>making_plots_005_FMC!$Y$2:$Y$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-797F-954A-B606-A2E062669256}"/>
+              <c16:uniqueId val="{00000000-01F1-0B45-8755-8FD021B61341}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1683,11 +1693,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1881063535"/>
-        <c:axId val="971989183"/>
+        <c:axId val="1747697087"/>
+        <c:axId val="1727334479"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1881063535"/>
+        <c:axId val="1747697087"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1744,12 +1754,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="971989183"/>
+        <c:crossAx val="1727334479"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="971989183"/>
+        <c:axId val="1727334479"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1806,7 +1816,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1881063535"/>
+        <c:crossAx val="1747697087"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2003,6 +2013,30 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>making_plots_003_FMC!$J$2:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>making_plots_003_FMC!$I$2:$I$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -2021,30 +2055,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.5041833499999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>making_plots_003_FMC!$J$2:$J$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2088,61 +2098,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>ROS (m/s)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2205,61 +2160,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Midflame Wind Speed (m/s)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2466,6 +2366,30 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>making_plots_003_FMC!$N$2:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>making_plots_003_FMC!$M$2:$M$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -2484,30 +2408,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.5328664600000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>making_plots_003_FMC!$N$2:$N$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2551,61 +2451,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>ROS (m/s)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2668,61 +2513,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Midflame Wind Speed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2929,6 +2719,30 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>making_plots_003_FMC!$R$2:$R$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>making_plots_003_FMC!$Q$2:$Q$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -2947,30 +2761,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.58268363</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>making_plots_003_FMC!$R$2:$R$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3014,61 +2804,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>ROS (m/s)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3131,66 +2866,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Midflame wind</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Speed (m/s)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3397,6 +3072,30 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>making_plots_003_FMC!$C$34:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>making_plots_003_FMC!$B$34:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -3415,30 +3114,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.4995744599999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>making_plots_003_FMC!$C$34:$C$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3544,61 +3219,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Midflame Wind Speed (m/s)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3805,6 +3425,30 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>making_plots_003_FMC!$I$34:$I$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>making_plots_003_FMC!$H$34:$H$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -3823,30 +3467,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.5088722699999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>making_plots_003_FMC!$I$34:$I$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4158,6 +3778,30 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>making_plots_003_FMC!$P$34:$P$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>making_plots_003_FMC!$O$34:$O$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -4176,30 +3820,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.5373416400000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>making_plots_003_FMC!$P$34:$P$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4511,6 +4131,30 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>making_plots_003_FMC!$W$34:$W$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>making_plots_003_FMC!$V$34:$V$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -4529,30 +4173,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.5867875900000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>making_plots_003_FMC!$W$34:$W$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4824,7 +4444,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>making_plots_005_FMC!$L$1</c:f>
+              <c:f>making_plots_005_FMC!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4859,10 +4479,34 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>making_plots_005_FMC!$K$2:$K$21</c:f>
+              <c:f>making_plots_005_FMC!$J$2:$J$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>making_plots_005_FMC!$K$2:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2.4733996158491901E-2</c:v>
                 </c:pt>
@@ -4877,30 +4521,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.66146036491658</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>making_plots_005_FMC!$L$2:$L$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12169,23 +11789,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE929862-E23C-64EB-5E4F-8FB3C7EBFCB1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBAAEFFA-FF7E-FAC3-9FC8-50C9AC75730E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -49866,8 +49486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D2672B-83B2-C34C-BD5C-5EE2CC711726}">
   <dimension ref="A1:W48"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" zoomScale="124" zoomScaleNormal="124" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="V33" sqref="V33:W38"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="124" zoomScaleNormal="124" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="U63" sqref="U63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -50314,15 +49934,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592D1462-1133-694F-A7D9-B6F3317F53F7}">
-  <dimension ref="A1:Y21"/>
+  <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -50341,38 +49961,38 @@
       <c r="F1" t="s">
         <v>72</v>
       </c>
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
       <c r="K1" t="s">
         <v>72</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>36</v>
       </c>
       <c r="N1" t="s">
         <v>72</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>36</v>
       </c>
       <c r="Q1" t="s">
         <v>72</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>36</v>
       </c>
       <c r="U1" t="s">
         <v>72</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>36</v>
       </c>
       <c r="X1" t="s">
         <v>72</v>
       </c>
-      <c r="Y1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -50391,38 +50011,38 @@
       <c r="F2">
         <v>2.4733996158491901E-2</v>
       </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
       <c r="K2">
         <v>2.4733996158491901E-2</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
         <v>3.2523712367316299E-2</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
         <v>5.6375390507799002E-2</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
         <v>9.7801282155726393E-2</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
         <v>9.7801282155726393E-2</v>
       </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -50441,38 +50061,38 @@
       <c r="F3">
         <v>0.18375304655007799</v>
       </c>
+      <c r="J3">
+        <v>1.25</v>
+      </c>
       <c r="K3">
         <v>0.18375304655007799</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>1.25</v>
       </c>
       <c r="N3">
         <v>0.191542762758902</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>1.25</v>
       </c>
       <c r="Q3">
         <v>0.215394440899385</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>1.25</v>
       </c>
       <c r="U3">
         <v>0.25682033254731301</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>1.25</v>
       </c>
       <c r="X3">
         <v>0.25682033254731301</v>
       </c>
-      <c r="Y3">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -50491,38 +50111,38 @@
       <c r="F4">
         <v>0.69300719443416703</v>
       </c>
+      <c r="J4">
+        <v>2.5</v>
+      </c>
       <c r="K4">
         <v>0.69300719443416703</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>2.5</v>
       </c>
       <c r="N4">
         <v>0.70079691064299099</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>2.5</v>
       </c>
       <c r="Q4">
         <v>0.72464858878347405</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>2.5</v>
       </c>
       <c r="U4">
         <v>0.76607448043140103</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>2.5</v>
       </c>
       <c r="X4">
         <v>0.76607448043140103</v>
       </c>
-      <c r="Y4">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
@@ -50541,38 +50161,38 @@
       <c r="F5">
         <v>1.57241346788603</v>
       </c>
+      <c r="J5">
+        <v>3.75</v>
+      </c>
       <c r="K5">
         <v>1.57241346788603</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>3.75</v>
       </c>
       <c r="N5">
         <v>1.58020318409486</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>3.75</v>
       </c>
       <c r="Q5">
         <v>1.6040548622353401</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>3.75</v>
       </c>
       <c r="U5">
         <v>1.6454807538832701</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>3.75</v>
       </c>
       <c r="X5">
         <v>1.6454807538832701</v>
       </c>
-      <c r="Y5">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1</v>
       </c>
@@ -50591,38 +50211,38 @@
       <c r="F6">
         <v>1.66146036491658</v>
       </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
       <c r="K6">
         <v>1.66146036491658</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>5</v>
       </c>
       <c r="N6">
         <v>1.6692500811254001</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>5</v>
       </c>
       <c r="Q6">
         <v>1.6931017592658799</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>5</v>
       </c>
       <c r="U6">
         <v>1.7345276509138099</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>5</v>
       </c>
       <c r="X6">
         <v>1.7345276509138099</v>
       </c>
-      <c r="Y6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1</v>
       </c>
@@ -50645,7 +50265,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1</v>
       </c>
@@ -50665,7 +50285,7 @@
         <v>0.191542762758902</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1</v>
       </c>
@@ -50685,7 +50305,7 @@
         <v>0.70079691064299099</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1</v>
       </c>
@@ -50705,7 +50325,7 @@
         <v>1.58020318409486</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1</v>
       </c>
@@ -50725,7 +50345,7 @@
         <v>1.6692500811254001</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>1</v>
       </c>
@@ -50745,7 +50365,7 @@
         <v>5.6375390507799002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>1</v>
       </c>
@@ -50765,7 +50385,7 @@
         <v>0.215394440899385</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>1</v>
       </c>
@@ -50785,7 +50405,7 @@
         <v>0.72464858878347405</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>1</v>
       </c>
@@ -50805,7 +50425,7 @@
         <v>1.6040548622353401</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>1</v>
       </c>
